--- a/ja/メンテナンスノート.xlsx
+++ b/ja/メンテナンスノート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9DCBB0-2FA7-4C99-AECC-E910272DEBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B932478-FD4E-4A1B-A4F0-80DDAF5003CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22230" yWindow="12030" windowWidth="23250" windowHeight="19530" xr2:uid="{7349D15D-7293-4DB3-A416-3424CB4CE181}"/>
+    <workbookView xWindow="20790" yWindow="5790" windowWidth="23250" windowHeight="11550" xr2:uid="{7349D15D-7293-4DB3-A416-3424CB4CE181}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -199,6 +199,347 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
   <si>
+    <t>メンテナンスノート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動計算用&lt;ここから&gt;</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウケイサン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// '項目毎総評' の部分で参照するので、'メンテナンスログ' 上部ではなくここに定義する</t>
+    <rPh sb="12" eb="14">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Row Index (表示形式定義専用行基準)</t>
+    <rPh sb="19" eb="20">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近のセル</t>
+    <rPh sb="0" eb="2">
+      <t>チョッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近の "レ" から始まるセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近の "Ｘ" から始まるセル</t>
+  </si>
+  <si>
+    <t>直近の "Ａ" から始まるセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近の "△" から始まるセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つ前のセル</t>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つ前の "レ" から始まるセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つ前の "Ｘ" から始まるセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つ前の "Ａ" から始まるセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つ前の "△" から始まるセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も古い行</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(計算用一時値)</t>
+    <rPh sb="1" eb="4">
+      <t>ケイサンヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も古い "レ" から始まるセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も古い "Ｘ" から始まるセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も古い "Ａ" から始まるセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も古い "△" から始まるセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//計算式利用例</t>
+    <rPh sb="2" eb="5">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近の '走行距離'</t>
+    <rPh sb="0" eb="2">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近の給油日</t>
+    <rPh sb="3" eb="5">
+      <t>キュウユ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も古いログ記載日</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算用一時値</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近日 ("レ")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近日 ("Ｘ")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近日 ("Ａ")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近日 ("△")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近日 ("レ"/"Ｘ"/"Ａ"/"△")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'項目毎総評' 用パラメータ</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃費</t>
+    <rPh sb="0" eb="2">
+      <t>ネンピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オイルフィルター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃費(直近)[km/L]</t>
+    <rPh sb="0" eb="2">
+      <t>ネンピ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F 右</t>
+    <rPh sb="2" eb="3">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F 左</t>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R 右</t>
+    <rPh sb="2" eb="3">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R 左</t>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃費(通算)[km/L]</t>
+    <rPh sb="0" eb="2">
+      <t>ネンピ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動計算用&lt;/ここまで&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目毎総評</t>
+  </si>
+  <si>
+    <t>燃費(直近)
+[km/L]</t>
+    <rPh sb="0" eb="2">
+      <t>ネンピ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃費(通算)
+[km/L]</t>
+    <rPh sb="0" eb="2">
+      <t>ネンピ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近交換日</t>
+    <rPh sb="2" eb="4">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直近メンテナンス日</t>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンテナンスログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル行の下に行を追加して記載(降順)。'表示形式定義専用行' は、削除しない。 //大抵の場合は、最新のメンテ内容が画面上部に表示されたほうが便利なため。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -214,79 +555,247 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ガソリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給油
+[L]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//表示形式定義専用行</t>
+    <rPh sb="10" eb="11">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//行を挿入しても書式の枠線はコピーされないため、ここで定義</t>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ワクセン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'項目毎総評' 用表示メッセージ</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENG_OIL_EXPIRED_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WARNING: 交換時期です。({{ days_elapsed }} 日経過)</t>
+    <rPh sb="9" eb="13">
+      <t>コウカンジキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENG_OIL_EXPIRED_MIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WARNING: 交換時期です。({{ mil_excess }} km 走行)</t>
+  </si>
+  <si>
+    <t>ENG_FLTR_EXPIRED_MIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIRE_EXPIRED_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BAD: 交換時期です。({{ days_elapsed }} 年経過)</t>
+    <rPh sb="32" eb="33">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIRE_AIRPRES_SPAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WARNING: 気圧チェックをしてください。({{ days_elapsed }} 日経過)</t>
+    <rPh sb="9" eb="11">
+      <t>キアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[^1]: 点検項目の凡例文字</t>
+    <rPh sb="6" eb="10">
+      <t>テンケンコウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンレイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味</t>
+    <rPh sb="0" eb="2">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>点検良好</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Ｘ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>交換</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Ａ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>調整</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Ｃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>清掃</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>省略</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>分解</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>修理</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Ｔ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>締付</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>給油</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ｘ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ａ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ｃ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ｔ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>省略</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P</t>
+    <t>／</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引用元:</t>
+    <rPh sb="0" eb="3">
+      <t>インヨウモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.kurumaya.co.jp/download</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-&gt; [24ヶ月整備点検記録簿](http://www.kurumaya.co.jp/syorui/24kirokubo.pdf)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根拠:</t>
+    <rPh sb="0" eb="2">
+      <t>コンキョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://elaws.e-gov.go.jp/document?lawid=326AC0000000185#Mp-At_49</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第四十九条　自動車の使用者は、点検整備記録簿を当該自動車に備え置き、当該自動車について前条の規定により点検又は整備をしたときは、遅滞なく、次に掲げる事項を記載しなければならない。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -311,515 +820,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>サダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 第四十九条　自動車の使用者は、点検整備記録簿を当該自動車に備え置き、当該自動車について前条の規定により点検又は整備をしたときは、遅滞なく、次に掲げる事項を記載しなければならない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>／</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.kurumaya.co.jp/download</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>燃費(直近)[km/L]</t>
-    <rPh sb="0" eb="2">
-      <t>ネンピ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チョッキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>燃費(通算)[km/L]</t>
-    <rPh sb="0" eb="2">
-      <t>ネンピ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツウサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メンテナンスノート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動計算用&lt;ここから&gt;</t>
-    <rPh sb="0" eb="4">
-      <t>ジドウケイサン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動計算用&lt;/ここまで&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[^1]: 点検項目の凡例文字</t>
-    <rPh sb="6" eb="10">
-      <t>テンケンコウモク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンレイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>意味</t>
-    <rPh sb="0" eb="2">
-      <t>イミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-&gt; [24ヶ月整備点検記録簿](http://www.kurumaya.co.jp/syorui/24kirokubo.pdf)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>根拠:</t>
-    <rPh sb="0" eb="2">
-      <t>コンキョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引用元:</t>
-    <rPh sb="0" eb="3">
-      <t>インヨウモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メンテナンスログ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目毎総評</t>
-  </si>
-  <si>
-    <t>燃費</t>
-    <rPh sb="0" eb="2">
-      <t>ネンピ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エンジン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイヤ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F 右</t>
-    <rPh sb="2" eb="3">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F 左</t>
-    <rPh sb="2" eb="3">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R 右</t>
-    <rPh sb="2" eb="3">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R 左</t>
-    <rPh sb="2" eb="3">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>// '項目毎総評' の部分で参照するので、'メンテナンスログ' 上部ではなくここに定義する</t>
-    <rPh sb="12" eb="14">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>//計算式利用例</t>
-    <rPh sb="2" eb="5">
-      <t>ケイサンシキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>給油
-[L]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガソリン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Row Index (表示形式定義専用行基準)</t>
-    <rPh sb="19" eb="20">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>//表示形式定義専用行</t>
-    <rPh sb="10" eb="11">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル行の下に行を追加して記載(降順)。'表示形式定義専用行' は、削除しない。 //大抵の場合は、最新のメンテ内容が画面上部に表示されたほうが便利なため。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>//行を挿入しても書式の枠線はコピーされないため、ここで定義</t>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショシキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ワクセン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近のセル</t>
-    <rPh sb="0" eb="2">
-      <t>チョッキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最も古い行</t>
-    <rPh sb="0" eb="1">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フル</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近の "Ｘ" から始まるセル</t>
-  </si>
-  <si>
-    <t>2つ前のセル</t>
-    <rPh sb="2" eb="3">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近の "Ａ" から始まるセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近の "△" から始まるセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2つ前の "Ｘ" から始まるセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2つ前の "Ａ" から始まるセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2つ前の "△" から始まるセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最も古い "Ｘ" から始まるセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最も古い "Ａ" から始まるセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最も古い "△" から始まるセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(計算用一時値)</t>
-    <rPh sb="1" eb="4">
-      <t>ケイサンヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オイルフィルター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近交換日</t>
-    <rPh sb="2" eb="4">
-      <t>コウカン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近の '走行距離'</t>
-    <rPh sb="0" eb="2">
-      <t>チョッキン</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ソウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近の給油日</t>
-    <rPh sb="3" eb="5">
-      <t>キュウユ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最も古いログ記載日</t>
-    <rPh sb="0" eb="1">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フル</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'項目毎総評' 用パラメータ</t>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算用一時値</t>
-    <rPh sb="0" eb="3">
-      <t>ケイサンヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'項目毎総評' 用表示メッセージ</t>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ENG_OIL_EXPIRED_TIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ENG_OIL_EXPIRED_MIL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WARNING: 交換時期です。({{ days_elapsed }} 日経過)</t>
-    <rPh sb="9" eb="13">
-      <t>コウカンジキ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ケイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WARNING: 交換時期です。({{ mil_excess }} km 走行)</t>
-  </si>
-  <si>
-    <t>ENG_FLTR_EXPIRED_MIL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>燃費(直近)
-[km/L]</t>
-    <rPh sb="0" eb="2">
-      <t>ネンピ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チョッキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>燃費(通算)
-[km/L]</t>
-    <rPh sb="0" eb="2">
-      <t>ネンピ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツウサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近の "レ" から始まるセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最も古い "レ" から始まるセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2つ前の "レ" から始まるセル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近日 ("レ")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近日 ("Ｘ")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近日 ("Ａ")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近日 ("△")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近日 ("レ"/"Ｘ"/"Ａ"/"△")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近メンテナンス日</t>
-    <rPh sb="8" eb="9">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TIRE_EXPIRED_TIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TIRE_AIRPRES_SPAN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WARNING: 気圧チェックをしてください。({{ days_elapsed }} 日経過)</t>
-    <rPh sb="9" eb="11">
-      <t>キアツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BAD: 交換時期です。({{ days_elapsed }} 年経過)</t>
-    <rPh sb="32" eb="33">
-      <t>ネン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -828,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd/\(aaa\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
@@ -838,6 +838,7 @@
     <numFmt numFmtId="182" formatCode="&quot;直近確認日：&quot;yyyy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="183" formatCode="&quot;確認日：&quot;yyyy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="184" formatCode="0_ &quot;[年]&quot;"/>
+    <numFmt numFmtId="185" formatCode="yyyy\([$-411]gee\)/mm/dd/\(aaa\)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -918,7 +919,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -987,6 +988,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -996,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,6 +1129,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1113,6 +1143,18 @@
     </xf>
     <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1201,7 +1243,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>409576</xdr:rowOff>
     </xdr:to>
@@ -1218,8 +1260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295276" y="10810877"/>
-          <a:ext cx="1409699" cy="981074"/>
+          <a:off x="295276" y="2124077"/>
+          <a:ext cx="1523999" cy="981074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1670,15 +1712,12 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="59" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="18.7109375" customWidth="1"/>
@@ -1688,28 +1727,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" hidden="1"/>
     <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" hidden="1">
       <c r="A5" s="18" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="11" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="e">
         <f>MATCH(
@@ -1770,7 +1809,7 @@
     </row>
     <row r="7" spans="1:9" ht="22.5" hidden="1">
       <c r="A7" s="11" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="e">
         <f>MATCH(
@@ -1831,7 +1870,7 @@
     </row>
     <row r="8" spans="1:9" ht="22.5" hidden="1">
       <c r="A8" s="11" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="e">
         <f>MATCH(
@@ -1892,7 +1931,7 @@
     </row>
     <row r="9" spans="1:9" ht="22.5" hidden="1">
       <c r="A9" s="11" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="e">
         <f>MATCH(
@@ -1953,7 +1992,7 @@
     </row>
     <row r="10" spans="1:9" ht="22.5" hidden="1">
       <c r="A10" s="11" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="e">
         <f>MATCH(
@@ -2014,7 +2053,7 @@
     </row>
     <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="11" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="e">
         <f>B$6+MATCH(
@@ -2083,7 +2122,7 @@
     </row>
     <row r="12" spans="1:9" ht="22.5" hidden="1">
       <c r="A12" s="11" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="e">
         <f>B7+MATCH(
@@ -2152,7 +2191,7 @@
     </row>
     <row r="13" spans="1:9" ht="22.5" hidden="1">
       <c r="A13" s="11" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="e">
         <f>B8+MATCH(
@@ -2221,7 +2260,7 @@
     </row>
     <row r="14" spans="1:9" ht="22.5" hidden="1">
       <c r="A14" s="11" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="e">
         <f>B9+MATCH(
@@ -2290,7 +2329,7 @@
     </row>
     <row r="15" spans="1:9" ht="22.5" hidden="1">
       <c r="A15" s="11" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="e">
         <f>B10+MATCH(
@@ -2359,7 +2398,7 @@
     </row>
     <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="11" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="e">
         <f>IF(
@@ -2428,7 +2467,7 @@
     </row>
     <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="11" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <f>MAX(INDEX((LEFT(B$59:B$60,1)=脚注!$B$4)*ROW(B$59:B$60)-ROW(B$59)+1,))</f>
@@ -2465,7 +2504,7 @@
     </row>
     <row r="18" spans="1:9" ht="22.5" hidden="1">
       <c r="A18" s="11" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="e">
         <f>IF(B17&lt;=0,NA(),B17)</f>
@@ -2502,7 +2541,7 @@
     </row>
     <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="11" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5">
         <f>MAX(INDEX((LEFT(B$59:B$60,1)=脚注!$B$5)*ROW(B$59:B$60)-ROW(B$59)+1,))</f>
@@ -2539,7 +2578,7 @@
     </row>
     <row r="20" spans="1:9" ht="22.5" hidden="1">
       <c r="A20" s="11" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5" t="e">
         <f t="shared" ref="B20:I20" si="1">IF(B19&lt;=0,NA(),B19)</f>
@@ -2576,7 +2615,7 @@
     </row>
     <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="11" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B21" s="5">
         <f>MAX(INDEX((LEFT(B$59:B$60,1)=脚注!$B$6)*ROW(B$59:B$60)-ROW(B$59)+1,))</f>
@@ -2613,7 +2652,7 @@
     </row>
     <row r="22" spans="1:9" ht="22.5" hidden="1">
       <c r="A22" s="11" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="e">
         <f t="shared" ref="B22:G22" si="2">IF(B21&lt;=0,NA(),B21)</f>
@@ -2650,7 +2689,7 @@
     </row>
     <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="11" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B23" s="5">
         <f>MAX(INDEX((LEFT(B$59:B$60,1)=脚注!$B$10)*ROW(B$59:B$60)-ROW(B$59)+1,))</f>
@@ -2687,7 +2726,7 @@
     </row>
     <row r="24" spans="1:9" ht="22.5" hidden="1">
       <c r="A24" s="11" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B24" s="5" t="e">
         <f t="shared" ref="B24:G24" si="3">IF(B23&lt;=0,NA(),B23)</f>
@@ -2724,12 +2763,12 @@
     </row>
     <row r="25" spans="1:9" hidden="1">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="14" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B26" t="e">
         <f>INDEX(B$59:B$60,B6)</f>
@@ -2738,7 +2777,7 @@
     </row>
     <row r="27" spans="1:9" hidden="1">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B27" t="e">
         <f>INDEX(A$59:A$60,C6)</f>
@@ -2747,7 +2786,7 @@
     </row>
     <row r="28" spans="1:9" hidden="1">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B28" t="e">
         <f>INDEX(A$59:A$60,B16)</f>
@@ -2756,12 +2795,12 @@
     </row>
     <row r="29" spans="1:9" ht="14.25" hidden="1">
       <c r="A29" s="18" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="11" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="B30" s="5" t="e">
         <f>INDEX($A$59:$A$60,B7)</f>
@@ -2798,7 +2837,7 @@
     </row>
     <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="11" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5" t="e">
         <f>INDEX($A$59:$A$60,B8)</f>
@@ -2835,7 +2874,7 @@
     </row>
     <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="11" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="B32" s="5" t="e">
         <f>INDEX($A$59:$A$60,B9)</f>
@@ -2872,7 +2911,7 @@
     </row>
     <row r="33" spans="1:13" hidden="1">
       <c r="A33" s="11" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="B33" s="5" t="e">
         <f>INDEX($A$59:$A$60,B10)</f>
@@ -2909,7 +2948,7 @@
     </row>
     <row r="34" spans="1:13" ht="22.5" hidden="1">
       <c r="A34" s="11" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B34" s="5" t="e">
         <f>IF(
@@ -2954,52 +2993,52 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" hidden="1">
       <c r="C35" s="19" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" hidden="1">
       <c r="A36" s="20"/>
       <c r="C36" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="36"/>
+        <v>31</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:13" ht="14.25" hidden="1">
       <c r="A37" s="20"/>
       <c r="C37" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="36"/>
+        <v>31</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="37"/>
       <c r="H37" s="11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:13" hidden="1">
       <c r="C38" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H38" s="21">
         <v>5000</v>
@@ -3025,7 +3064,7 @@
     </row>
     <row r="40" spans="1:13" hidden="1">
       <c r="C40" s="11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G40" s="24">
         <v>30</v>
@@ -3046,17 +3085,17 @@
     </row>
     <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C42" s="23"/>
     </row>
     <row r="43" spans="1:13" hidden="1"/>
     <row r="44" spans="1:13" ht="14.25">
-      <c r="A44" s="38">
-        <v>45078</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
+      <c r="A44" s="39">
+        <v>45220</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
     </row>
     <row r="45" spans="1:13" ht="12" customHeight="1">
       <c r="A45" s="25"/>
@@ -3065,7 +3104,7 @@
     </row>
     <row r="46" spans="1:13" ht="17.25">
       <c r="C46" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -3075,40 +3114,40 @@
     <row r="47" spans="1:13" ht="14.25">
       <c r="A47" s="6"/>
       <c r="C47" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="36"/>
+        <v>31</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="37"/>
     </row>
     <row r="48" spans="1:13" ht="22.5">
       <c r="C48" s="11" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3187,25 +3226,25 @@
     </row>
     <row r="50" spans="1:10" ht="22.5">
       <c r="C50" s="11" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36" customHeight="1">
@@ -3241,16 +3280,16 @@
     <row r="52" spans="1:10" ht="36" customHeight="1">
       <c r="C52" s="1"/>
       <c r="D52" s="11" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
@@ -3285,7 +3324,7 @@
     </row>
     <row r="55" spans="1:10" ht="17.25">
       <c r="A55" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3295,7 +3334,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3303,55 +3342,55 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" ht="22.5">
-      <c r="A57" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>1</v>
+    <row r="57" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A57" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="36"/>
+        <v>52</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="37"/>
     </row>
     <row r="58" spans="1:10" s="2" customFormat="1" ht="22.5">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:10" hidden="1">
-      <c r="A59" s="17" t="s">
-        <v>58</v>
+      <c r="A59" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="15"/>
@@ -3373,11 +3412,11 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="A44:C44"/>
@@ -3385,6 +3424,8 @@
     <mergeCell ref="D47:G47"/>
     <mergeCell ref="D57:G57"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C49">
@@ -3473,55 +3514,55 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25">
       <c r="A1" s="26" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="29" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="29" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="29" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3531,6 +3572,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3546,110 +3588,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="9" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="9" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -3657,65 +3699,65 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/ja/メンテナンスノート.xlsx
+++ b/ja/メンテナンスノート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B932478-FD4E-4A1B-A4F0-80DDAF5003CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B80CE-FD4C-4171-8D97-C717A7F8E18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20790" yWindow="5790" windowWidth="23250" windowHeight="11550" xr2:uid="{7349D15D-7293-4DB3-A416-3424CB4CE181}"/>
+    <workbookView xWindow="45000" yWindow="16200" windowWidth="28800" windowHeight="16200" xr2:uid="{7349D15D-7293-4DB3-A416-3424CB4CE181}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,9 +1119,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1709,11 +1706,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D5BF59-30C8-454F-AED3-9869D06E8B59}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -1722,7 +1717,6 @@
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5">
@@ -2401,7 +2395,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="e">
-        <f>IF(
+        <f t="shared" ref="B16:I16" si="0">IF(
   COUNTA(B$59:B$60)=0,
   NA(),
   MAX(INDEX((B$59:B$60&lt;&gt;"")*ROW(B$59:B$60)-ROW(B$59)+1,))
@@ -2409,59 +2403,31 @@
         <v>#N/A</v>
       </c>
       <c r="C16" s="5" t="e">
-        <f>IF(
-  COUNTA(C$59:C$60)=0,
-  NA(),
-  MAX(INDEX((C$59:C$60&lt;&gt;"")*ROW(C$59:C$60)-ROW(C$59)+1,))
-)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D16" s="5" t="e">
-        <f>IF(
-  COUNTA(D$59:D$60)=0,
-  NA(),
-  MAX(INDEX((D$59:D$60&lt;&gt;"")*ROW(D$59:D$60)-ROW(D$59)+1,))
-)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E16" s="5" t="e">
-        <f>IF(
-  COUNTA(E$59:E$60)=0,
-  NA(),
-  MAX(INDEX((E$59:E$60&lt;&gt;"")*ROW(E$59:E$60)-ROW(E$59)+1,))
-)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="F16" s="5" t="e">
-        <f>IF(
-  COUNTA(F$59:F$60)=0,
-  NA(),
-  MAX(INDEX((F$59:F$60&lt;&gt;"")*ROW(F$59:F$60)-ROW(F$59)+1,))
-)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G16" s="5" t="e">
-        <f>IF(
-  COUNTA(G$59:G$60)=0,
-  NA(),
-  MAX(INDEX((G$59:G$60&lt;&gt;"")*ROW(G$59:G$60)-ROW(G$59)+1,))
-)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="H16" s="5" t="e">
-        <f>IF(
-  COUNTA(H$59:H$60)=0,
-  NA(),
-  MAX(INDEX((H$59:H$60&lt;&gt;"")*ROW(H$59:H$60)-ROW(H$59)+1,))
-)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I16" s="5" t="e">
-        <f>IF(
-  COUNTA(I$59:I$60)=0,
-  NA(),
-  MAX(INDEX((I$59:I$60&lt;&gt;"")*ROW(I$59:I$60)-ROW(I$59)+1,))
-)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -2511,31 +2477,31 @@
         <v>#N/A</v>
       </c>
       <c r="C18" s="5" t="e">
-        <f t="shared" ref="C18:I18" si="0">IF(C17&lt;=0,NA(),C17)</f>
+        <f t="shared" ref="C18:I18" si="1">IF(C17&lt;=0,NA(),C17)</f>
         <v>#N/A</v>
       </c>
       <c r="D18" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E18" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F18" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G18" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H18" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="I18" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -2581,35 +2547,35 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="e">
-        <f t="shared" ref="B20:I20" si="1">IF(B19&lt;=0,NA(),B19)</f>
+        <f t="shared" ref="B20:I20" si="2">IF(B19&lt;=0,NA(),B19)</f>
         <v>#N/A</v>
       </c>
       <c r="C20" s="5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D20" s="5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E20" s="5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F20" s="5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="G20" s="5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H20" s="5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I20" s="5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -2655,27 +2621,27 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="e">
-        <f t="shared" ref="B22:G22" si="2">IF(B21&lt;=0,NA(),B21)</f>
+        <f t="shared" ref="B22:G22" si="3">IF(B21&lt;=0,NA(),B21)</f>
         <v>#N/A</v>
       </c>
       <c r="C22" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="D22" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E22" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="F22" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="G22" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H22" s="5" t="e">
@@ -2729,27 +2695,27 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="e">
-        <f t="shared" ref="B24:G24" si="3">IF(B23&lt;=0,NA(),B23)</f>
+        <f t="shared" ref="B24:G24" si="4">IF(B23&lt;=0,NA(),B23)</f>
         <v>#N/A</v>
       </c>
       <c r="C24" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D24" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E24" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F24" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="G24" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="H24" s="5" t="e">
@@ -2803,35 +2769,35 @@
         <v>25</v>
       </c>
       <c r="B30" s="5" t="e">
-        <f>INDEX($A$59:$A$60,B7)</f>
+        <f t="shared" ref="B30:I33" si="5">INDEX($A$59:$A$60,B7)</f>
         <v>#N/A</v>
       </c>
       <c r="C30" s="5" t="e">
-        <f>INDEX($A$59:$A$60,C7)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="D30" s="5" t="e">
-        <f>INDEX($A$59:$A$60,D7)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E30" s="5" t="e">
-        <f>INDEX($A$59:$A$60,E7)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F30" s="5" t="e">
-        <f>INDEX($A$59:$A$60,F7)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G30" s="5" t="e">
-        <f>INDEX($A$59:$A$60,G7)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H30" s="5" t="e">
-        <f>INDEX($A$59:$A$60,H7)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I30" s="5" t="e">
-        <f>INDEX($A$59:$A$60,I7)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -2840,35 +2806,35 @@
         <v>26</v>
       </c>
       <c r="B31" s="5" t="e">
-        <f>INDEX($A$59:$A$60,B8)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="C31" s="5" t="e">
-        <f>INDEX($A$59:$A$60,C8)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="D31" s="5" t="e">
-        <f>INDEX($A$59:$A$60,D8)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E31" s="5" t="e">
-        <f>INDEX($A$59:$A$60,E8)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F31" s="5" t="e">
-        <f>INDEX($A$59:$A$60,F8)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G31" s="5" t="e">
-        <f>INDEX($A$59:$A$60,G8)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H31" s="5" t="e">
-        <f>INDEX($A$59:$A$60,H8)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I31" s="5" t="e">
-        <f>INDEX($A$59:$A$60,I8)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -2877,76 +2843,76 @@
         <v>27</v>
       </c>
       <c r="B32" s="5" t="e">
-        <f>INDEX($A$59:$A$60,B9)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="C32" s="5" t="e">
-        <f>INDEX($A$59:$A$60,C9)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="D32" s="5" t="e">
-        <f>INDEX($A$59:$A$60,D9)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E32" s="5" t="e">
-        <f>INDEX($A$59:$A$60,E9)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F32" s="5" t="e">
-        <f>INDEX($A$59:$A$60,F9)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G32" s="5" t="e">
-        <f>INDEX($A$59:$A$60,G9)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H32" s="5" t="e">
-        <f>INDEX($A$59:$A$60,H9)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I32" s="5" t="e">
-        <f>INDEX($A$59:$A$60,I9)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" hidden="1">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="5" t="e">
-        <f>INDEX($A$59:$A$60,B10)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="C33" s="5" t="e">
-        <f>INDEX($A$59:$A$60,C10)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="D33" s="5" t="e">
-        <f>INDEX($A$59:$A$60,D10)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E33" s="5" t="e">
-        <f>INDEX($A$59:$A$60,E10)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F33" s="5" t="e">
-        <f>INDEX($A$59:$A$60,F10)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G33" s="5" t="e">
-        <f>INDEX($A$59:$A$60,G10)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H33" s="5" t="e">
-        <f>INDEX($A$59:$A$60,H10)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I33" s="5" t="e">
-        <f>INDEX($A$59:$A$60,I10)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="22.5" hidden="1">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="22.5" hidden="1">
       <c r="A34" s="11" t="s">
         <v>29</v>
       </c>
@@ -2959,7 +2925,7 @@
         <v>#N/A</v>
       </c>
       <c r="C34" s="5" t="e">
-        <f t="shared" ref="C34:I34" si="4">IF(
+        <f t="shared" ref="C34:I34" si="6">IF(
   MAX(_xlfn.IFNA(C$30,0),_xlfn.IFNA(C$31,0),_xlfn.IFNA(C$32,0),_xlfn.IFNA(C$33,0))=0,
   NA(),
   MAX(_xlfn.IFNA(C$30,0),_xlfn.IFNA(C$31,0),_xlfn.IFNA(C$32,0),_xlfn.IFNA(C$33,0))
@@ -2967,56 +2933,56 @@
         <v>#N/A</v>
       </c>
       <c r="D34" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E34" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F34" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G34" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H34" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I34" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="14.25" hidden="1">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" hidden="1">
       <c r="C35" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="14.25" hidden="1">
+    <row r="36" spans="1:9" ht="14.25" hidden="1">
       <c r="A36" s="20"/>
       <c r="C36" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="37"/>
-    </row>
-    <row r="37" spans="1:13" ht="14.25" hidden="1">
+      <c r="I36" s="36"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" hidden="1">
       <c r="A37" s="20"/>
       <c r="C37" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="11" t="s">
         <v>34</v>
       </c>
@@ -3024,7 +2990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:9" hidden="1">
       <c r="C38" s="11" t="s">
         <v>36</v>
       </c>
@@ -3047,62 +3013,51 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:9" hidden="1">
       <c r="C39" s="22">
         <v>8</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="32">
         <v>5</v>
       </c>
       <c r="H39" s="24">
         <f>6*30</f>
         <v>180</v>
       </c>
-      <c r="L39" s="32">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" hidden="1">
+    </row>
+    <row r="40" spans="1:9" hidden="1">
       <c r="C40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G40" s="24">
         <v>30</v>
       </c>
-      <c r="L40" s="32">
-        <v>42369</v>
-      </c>
-      <c r="M40">
-        <f>DATEDIF(L39,L40,"Y")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" hidden="1">
+    </row>
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="6"/>
       <c r="C41" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="23"/>
     </row>
-    <row r="43" spans="1:13" hidden="1"/>
-    <row r="44" spans="1:13" ht="14.25">
-      <c r="A44" s="39">
+    <row r="44" spans="1:9" ht="14.25">
+      <c r="A44" s="38">
         <v>45220</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-    </row>
-    <row r="45" spans="1:13" ht="12" customHeight="1">
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+    </row>
+    <row r="45" spans="1:9" ht="12" customHeight="1">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
     </row>
-    <row r="46" spans="1:13" ht="17.25">
+    <row r="46" spans="1:9" ht="17.25">
       <c r="C46" s="7" t="s">
         <v>43</v>
       </c>
@@ -3111,23 +3066,23 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:13" ht="14.25">
+    <row r="47" spans="1:9" ht="14.25">
       <c r="A47" s="6"/>
       <c r="C47" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="36" t="s">
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I47" s="37"/>
-    </row>
-    <row r="48" spans="1:13" ht="22.5">
+      <c r="I47" s="36"/>
+    </row>
+    <row r="48" spans="1:9" ht="22.5">
       <c r="C48" s="11" t="s">
         <v>44</v>
       </c>
@@ -3191,7 +3146,7 @@
 )</f>
         <v>#N/A</v>
       </c>
-      <c r="G49" s="34" t="e">
+      <c r="G49" s="33" t="e">
         <f>IF(
   G$39&lt;=DATEDIF(G31,$A$44,"Y"),
   SUBSTITUTE(VLOOKUP("TIRE_EXPIRED_TIME",message!$A$3:$B$7,2,FALSE),"{{ days_elapsed }}",FIXED(DATEDIF(G31,$A$44,"Y"),0,FALSE)),
@@ -3253,27 +3208,27 @@
         <v>#N/A</v>
       </c>
       <c r="D51" s="17" t="e">
-        <f t="shared" ref="D51:I51" si="5">D31</f>
+        <f t="shared" ref="D51:I51" si="7">D31</f>
         <v>#N/A</v>
       </c>
       <c r="E51" s="17" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F51" s="17" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G51" s="17" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H51" s="17" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I51" s="17" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3297,15 +3252,15 @@
     <row r="53" spans="1:10" ht="36" customHeight="1">
       <c r="C53" s="1"/>
       <c r="D53" s="17" t="e">
-        <f t="shared" ref="D53:F53" si="6">D34</f>
+        <f t="shared" ref="D53:F53" si="8">D34</f>
         <v>#N/A</v>
       </c>
       <c r="E53" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F53" s="17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G53" s="17" t="e">
@@ -3343,29 +3298,29 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="36" t="s">
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I57" s="37"/>
+      <c r="I57" s="36"/>
     </row>
     <row r="58" spans="1:10" s="2" customFormat="1" ht="22.5">
-      <c r="A58" s="41"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="11" t="s">
         <v>53</v>
       </c>
@@ -3389,7 +3344,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" hidden="1">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B59" s="16"/>

--- a/ja/メンテナンスノート.xlsx
+++ b/ja/メンテナンスノート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B80CE-FD4C-4171-8D97-C717A7F8E18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC8673A-24D3-49CE-8E2D-E57C69EEC0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45000" yWindow="16200" windowWidth="28800" windowHeight="16200" xr2:uid="{7349D15D-7293-4DB3-A416-3424CB4CE181}"/>
+    <workbookView xWindow="41310" yWindow="12360" windowWidth="24240" windowHeight="15090" xr2:uid="{7349D15D-7293-4DB3-A416-3424CB4CE181}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:10" hidden="1">
@@ -3399,8 +3399,8 @@
       <formula>AND(C51&lt;&gt;"",C51&lt;C41)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59:I59" xr:uid="{056A82BD-0D7E-4B44-8EDC-061FF4BE2C2F}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D59:I59" xr:uid="{056A82BD-0D7E-4B44-8EDC-061FF4BE2C2F}">
       <formula1>"レ,Ｘ,Ａ,△"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ja/メンテナンスノート.xlsx
+++ b/ja/メンテナンスノート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC8673A-24D3-49CE-8E2D-E57C69EEC0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F5A68C-8908-49F6-BE93-C7FED97BDFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41310" yWindow="12360" windowWidth="24240" windowHeight="15090" xr2:uid="{7349D15D-7293-4DB3-A416-3424CB4CE181}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{7349D15D-7293-4DB3-A416-3424CB4CE181}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1710,16 +1710,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.6"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="9" width="16.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5">
+    <row r="1" spans="1:9" ht="25.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25" hidden="1">
+    <row r="5" spans="1:9" ht="14.15" hidden="1">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22.5" hidden="1">
+    <row r="7" spans="1:9" ht="21.45" hidden="1">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22.5" hidden="1">
+    <row r="8" spans="1:9" ht="21.45" hidden="1">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" hidden="1">
+    <row r="9" spans="1:9" ht="21.45" hidden="1">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22.5" hidden="1">
+    <row r="10" spans="1:9" ht="21.45" hidden="1">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.5" hidden="1">
+    <row r="12" spans="1:9" ht="21.45" hidden="1">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="22.5" hidden="1">
+    <row r="13" spans="1:9" ht="21.45" hidden="1">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22.5" hidden="1">
+    <row r="14" spans="1:9" ht="21.45" hidden="1">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22.5" hidden="1">
+    <row r="15" spans="1:9" ht="21.45" hidden="1">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="22.5" hidden="1">
+    <row r="18" spans="1:9" ht="21.45" hidden="1">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="22.5" hidden="1">
+    <row r="20" spans="1:9" ht="21.45" hidden="1">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="22.5" hidden="1">
+    <row r="22" spans="1:9" ht="21.45" hidden="1">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="22.5" hidden="1">
+    <row r="24" spans="1:9" ht="21.45" hidden="1">
       <c r="A24" s="11" t="s">
         <v>19</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" hidden="1">
+    <row r="29" spans="1:9" ht="14.15" hidden="1">
       <c r="A29" s="18" t="s">
         <v>24</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="22.5" hidden="1">
+    <row r="34" spans="1:9" ht="21.45" hidden="1">
       <c r="A34" s="11" t="s">
         <v>29</v>
       </c>
@@ -2957,12 +2957,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.25" hidden="1">
+    <row r="35" spans="1:9" ht="14.15" hidden="1">
       <c r="C35" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.25" hidden="1">
+    <row r="36" spans="1:9" ht="14.15" hidden="1">
       <c r="A36" s="20"/>
       <c r="C36" s="13" t="s">
         <v>31</v>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="I36" s="36"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" hidden="1">
+    <row r="37" spans="1:9" ht="14.15" hidden="1">
       <c r="A37" s="20"/>
       <c r="C37" s="13" t="s">
         <v>31</v>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="C42" s="23"/>
     </row>
-    <row r="44" spans="1:9" ht="14.25">
+    <row r="44" spans="1:9" ht="14.15">
       <c r="A44" s="38">
         <v>45220</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
     </row>
-    <row r="46" spans="1:9" ht="17.25">
+    <row r="46" spans="1:9" ht="16.75">
       <c r="C46" s="7" t="s">
         <v>43</v>
       </c>
@@ -3066,7 +3066,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:9" ht="14.25">
+    <row r="47" spans="1:9" ht="14.15">
       <c r="A47" s="6"/>
       <c r="C47" s="13" t="s">
         <v>31</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="1:9" ht="22.5">
+    <row r="48" spans="1:9" ht="21.45">
       <c r="C48" s="11" t="s">
         <v>44</v>
       </c>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="C49" s="12" t="e">
-        <f>(INDEX(B59:B60,C6)-INDEX(B59:B60,C11))/INDEX(C59:C60,C11)</f>
+        <f>(INDEX(B59:B60,C6)-INDEX(B59:B60,C11))/INDEX(C59:C60,C6)</f>
         <v>#N/A</v>
       </c>
       <c r="D49" s="12" t="e">
@@ -3179,7 +3179,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="22.5">
+    <row r="50" spans="1:10" ht="21.45">
       <c r="C50" s="11" t="s">
         <v>45</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25">
+    <row r="55" spans="1:10" ht="16.75">
       <c r="A55" s="7" t="s">
         <v>48</v>
       </c>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="I57" s="36"/>
     </row>
-    <row r="58" spans="1:10" s="2" customFormat="1" ht="22.5">
+    <row r="58" spans="1:10" s="2" customFormat="1" ht="21.45">
       <c r="A58" s="40"/>
       <c r="B58" s="42"/>
       <c r="C58" s="11" t="s">
@@ -3461,13 +3461,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.6"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="77.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.4140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="77.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25">
+    <row r="1" spans="1:2" ht="16.75">
       <c r="A1" s="26" t="s">
         <v>56</v>
       </c>
@@ -3539,7 +3539,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="11.6"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
